--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -698,7 +698,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -787,25 +787,25 @@
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.3</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>500</v>
@@ -911,27 +911,27 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <f aca="false">(C4+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
-        <v>2.96967802438262</v>
+        <v>1.82262725050011</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="11" t="n">
         <f aca="false">1/(G4*10^3)</f>
-        <v>1.11111111111111E-005</v>
+        <v>1.33333333333333E-005</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="n">
         <f aca="false">C10/(A10+1)</f>
-        <v>2.79899554645598E-006</v>
+        <v>4.72373152741686E-006</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="n">
         <f aca="false">C10-E10</f>
-        <v>8.31211556465514E-006</v>
+        <v>8.60960180591648E-006</v>
       </c>
       <c r="H10" s="12"/>
       <c r="J10" s="13" t="n">
         <f aca="false">G10/C10</f>
-        <v>0.748090400818962</v>
+        <v>0.645720135443736</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -973,23 +973,23 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="n">
         <f aca="false">4*10^7*G10</f>
-        <v>332.484622586205</v>
+        <v>344.384072236659</v>
       </c>
       <c r="B13" s="18" t="n">
         <f aca="false">2*F4*(A10+1)</f>
-        <v>2.38180681462957</v>
+        <v>2.25810180040009</v>
       </c>
       <c r="C13" s="19" t="n">
         <f aca="false">300/B13</f>
-        <v>125.954799590519</v>
+        <v>132.854949208599</v>
       </c>
       <c r="D13" s="18" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
-        <v>11.1639858984396</v>
+        <v>17.1536103987673</v>
       </c>
       <c r="E13" s="19" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
-        <v>448.854240491377</v>
+        <v>232.459248759745</v>
       </c>
       <c r="F13" s="20" t="n">
         <f aca="false">1250/H4</f>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">Tj °C</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Tj</t>
+    <t xml:space="preserve">Max Tj °C</t>
   </si>
   <si>
     <t xml:space="preserve">Invert Configuration</t>
@@ -572,7 +572,7 @@
     <cellStyle name="Excel Built-in Heading 2" xfId="21"/>
     <cellStyle name="Excel Built-in Heading 4" xfId="22"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -640,6 +640,22 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -718,7 +734,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -739,7 +755,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -755,7 +771,7 @@
       <rgbColor rgb="FFA1B8E1"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -785,7 +801,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1259,6 +1275,11 @@
       <formula>$AA$6</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" priority="9" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>Boost!$J$20</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1621,37 +1642,37 @@
     <mergeCell ref="A11:H11"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>$AA$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>$AB$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="4" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>$AA$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F4 B13">
-    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>$AB$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" priority="6" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="6" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>$AA$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:G13">
-    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>$AB$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" priority="8" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="8" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>$AA$6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t xml:space="preserve">Step Up Configuration</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tj °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Tj</t>
   </si>
   <si>
     <t xml:space="preserve">Invert Configuration</t>
@@ -782,7 +785,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19:I20"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,10 +902,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>75</v>
@@ -915,15 +918,15 @@
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">C4*E4</f>
-        <v>2.875</v>
+        <v>3.45</v>
       </c>
       <c r="K4" s="11" t="n">
         <f aca="false">J4/I4</f>
-        <v>4.10714285714286</v>
+        <v>4.92857142857143</v>
       </c>
       <c r="L4" s="12" t="n">
         <f aca="false">K4/A4</f>
-        <v>0.855654761904762</v>
+        <v>1.02678571428571</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>40</v>
@@ -1092,19 +1095,19 @@
       </c>
       <c r="B13" s="21" t="n">
         <f aca="false">2*F4*(A10+1)</f>
-        <v>1.32626657969124</v>
+        <v>1.59151989562949</v>
       </c>
       <c r="C13" s="22" t="n">
         <f aca="false">300/B13</f>
-        <v>226.198868759734</v>
+        <v>188.499057299779</v>
       </c>
       <c r="D13" s="21" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
-        <v>28.8045225580885</v>
+        <v>24.0037687984071</v>
       </c>
       <c r="E13" s="22" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
-        <v>186.900565620133</v>
+        <v>224.280678744159</v>
       </c>
       <c r="F13" s="23" t="n">
         <f aca="false">1250/H4</f>
@@ -1178,11 +1181,14 @@
       <c r="I19" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="J19" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="11" t="n">
         <f aca="false">K4-J4</f>
-        <v>1.23214285714286</v>
+        <v>1.47857142857143</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>85</v>
@@ -1192,7 +1198,10 @@
       </c>
       <c r="I20" s="33" t="n">
         <f aca="false">H20+F20*G20</f>
-        <v>134.732142857143</v>
+        <v>155.678571428571</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1277,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="I19:I20 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1289,7 +1298,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1402,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1597,7 @@
         <v>6.776</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t xml:space="preserve">Step Up Configuration</t>
   </si>
@@ -146,25 +146,25 @@
     <t xml:space="preserve">output</t>
   </si>
   <si>
+    <t xml:space="preserve">Pdiss W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rth °C/W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amb °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tj °C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invert Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r max k</t>
+  </si>
+  <si>
     <t xml:space="preserve">r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tj °C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pdiss W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rth °C/W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amb °C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invert Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r max k</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -331,6 +331,48 @@
       <right style="medium"/>
       <top/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -370,7 +412,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,7 +513,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -716,7 +782,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1050,71 +1116,67 @@
       </c>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="1" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="26" t="n">
         <v>82</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="25" t="n">
+      <c r="I14" s="27" t="n">
         <f aca="false">1.25*(G14/F14+1)</f>
         <v>11.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="25" t="n">
         <v>9.6</v>
       </c>
-      <c r="G16" s="11" t="n">
+      <c r="G16" s="31" t="n">
         <f aca="false">((ABS(C4)/1.25)-1)*F16</f>
         <v>78.72</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>41</v>
-      </c>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="27"/>
-      <c r="F17" s="1" t="s">
+      <c r="D17" s="33"/>
+      <c r="F17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="I18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="27" t="n">
-        <f aca="false">H20+F20*G20</f>
-        <v>134.732142857143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,6 +1189,10 @@
       </c>
       <c r="H20" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="I20" s="33" t="n">
+        <f aca="false">H20+F20*G20</f>
+        <v>134.732142857143</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1268,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="I19:I20 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1223,7 +1289,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1336,7 +1402,7 @@
         <v>19</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,10 +1571,10 @@
       <c r="G14" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="29" t="n">
+      <c r="I14" s="35" t="n">
         <f aca="false">-1.25*(G14/F14+1)</f>
         <v>-5.11363636363636</v>
       </c>
@@ -1521,8 +1587,8 @@
         <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
         <v>6.776</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>41</v>
+      <c r="H15" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t xml:space="preserve">Step Up Configuration</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">Pin (W)</t>
   </si>
   <si>
+    <t xml:space="preserve">Iin(A)</t>
+  </si>
+  <si>
     <t xml:space="preserve">vout max</t>
   </si>
   <si>
@@ -137,9 +140,18 @@
     <t xml:space="preserve">vout</t>
   </si>
   <si>
+    <t xml:space="preserve">input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">output</t>
+  </si>
+  <si>
     <t xml:space="preserve">r2</t>
   </si>
   <si>
+    <t xml:space="preserve">Tj °C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pdiss W</t>
   </si>
   <si>
@@ -147,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">Amb °C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tj °C</t>
   </si>
   <si>
     <t xml:space="preserve">Invert Configuration</t>
@@ -166,10 +175,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+    <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="0"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
@@ -361,7 +370,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,19 +419,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,7 +451,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,11 +459,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,7 +479,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,26 +713,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="10" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="13" style="1" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="1" width="10.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,11 +809,14 @@
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="AA3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,10 +824,10 @@
         <v>4.8</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>100</v>
@@ -816,7 +836,7 @@
         <v>0.25</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>75</v>
@@ -829,11 +849,15 @@
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">C4*E4</f>
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="K4" s="11" t="n">
         <f aca="false">J4/I4</f>
-        <v>4.28571428571429</v>
+        <v>4.10714285714286</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <f aca="false">K4/A4</f>
+        <v>0.855654761904762</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>40</v>
@@ -844,7 +868,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -854,21 +878,21 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AA5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -894,12 +918,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="AA7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -914,54 +938,54 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <f aca="false">(C4+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
-        <v>1.82262725050011</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="n">
+        <v>1.65253315938247</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="n">
         <f aca="false">1/(G4*10^3)</f>
         <v>1.33333333333333E-005</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="n">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="n">
         <f aca="false">C10/(A10+1)</f>
-        <v>4.72373152741686E-006</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="n">
+        <v>5.0266415279941E-006</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="n">
         <f aca="false">C10-E10</f>
-        <v>8.60960180591648E-006</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="J10" s="15" t="n">
+        <v>8.30669180533924E-006</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="J10" s="16" t="n">
         <f aca="false">G10/C10</f>
-        <v>0.645720135443736</v>
+        <v>0.623001885400443</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -972,119 +996,137 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
+      <c r="A13" s="20" t="n">
         <f aca="false">4*10^7*G10</f>
-        <v>344.384072236659</v>
-      </c>
-      <c r="B13" s="20" t="n">
+        <v>332.267672213569</v>
+      </c>
+      <c r="B13" s="21" t="n">
         <f aca="false">2*F4*(A10+1)</f>
-        <v>1.69357635030007</v>
-      </c>
-      <c r="C13" s="21" t="n">
+        <v>1.32626657969124</v>
+      </c>
+      <c r="C13" s="22" t="n">
         <f aca="false">300/B13</f>
-        <v>177.139932278132</v>
-      </c>
-      <c r="D13" s="20" t="n">
+        <v>226.198868759734</v>
+      </c>
+      <c r="D13" s="21" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
-        <v>22.8714805316898</v>
-      </c>
-      <c r="E13" s="21" t="n">
+        <v>28.8045225580885</v>
+      </c>
+      <c r="E13" s="22" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
-        <v>193.716040633121</v>
-      </c>
-      <c r="F13" s="22" t="n">
+        <v>186.900565620133</v>
+      </c>
+      <c r="F13" s="23" t="n">
         <f aca="false">1250/H4</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="22" t="n">
+      <c r="G13" s="23" t="n">
         <f aca="false">(10^3*C4/H4)-F13</f>
-        <v>21.5</v>
-      </c>
-      <c r="H13" s="23"/>
+        <v>20.5</v>
+      </c>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="n">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="n">
-        <f aca="false">20-F14</f>
-        <v>17.9</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="I14" s="25" t="n">
         <f aca="false">1.25*(G14/F14+1)</f>
-        <v>11.9047619047619</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="11" t="n">
-        <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
-        <v>17.2</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="1" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <f aca="false">((ABS(C4)/1.25)-1)*F16</f>
+        <v>78.72</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="1" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G19" s="1" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="27" t="n">
+        <f aca="false">H20+F20*G20</f>
+        <v>134.732142857143</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="11" t="n">
+        <f aca="false">K4-J4</f>
+        <v>1.23214285714286</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H20" s="1" t="n">
         <v>30</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <f aca="false">H19+F19*G19</f>
-        <v>136.25</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1201,7 @@
   </sheetPr>
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1223,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1241,10 +1283,10 @@
         <v>11</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,7 +1323,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1291,21 +1333,21 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AA5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1331,12 +1373,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="AA7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1351,47 +1393,47 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <f aca="false">(ABS(C4)+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
         <v>0.703981481481481</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="n">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="n">
         <f aca="false">1/(G4*10^3)</f>
         <v>1.25E-005</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="n">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="n">
         <f aca="false">C10/(A10+1)</f>
         <v>7.33576047383579E-006</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="n">
+      <c r="F10" s="14"/>
+      <c r="G10" s="15" t="n">
         <f aca="false">C10-E10</f>
         <v>5.16423952616421E-006</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1402,59 +1444,59 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
+      <c r="A13" s="20" t="n">
         <f aca="false">4*10^7*G10</f>
         <v>206.569581046568</v>
       </c>
-      <c r="B13" s="20" t="n">
+      <c r="B13" s="21" t="n">
         <f aca="false">2*F4*(A10+1)</f>
         <v>0.408955555555555</v>
       </c>
-      <c r="C13" s="21" t="n">
+      <c r="C13" s="22" t="n">
         <f aca="false">300/B13</f>
         <v>733.576047383579</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="21" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
         <v>34.0952617741103</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="22" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
         <v>74.3650491767646</v>
       </c>
-      <c r="F13" s="22" t="n">
+      <c r="F13" s="23" t="n">
         <f aca="false">1250/H4</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="22" t="n">
+      <c r="G13" s="23" t="n">
         <f aca="false">-F13+(10^3*ABS(C4)/H4)</f>
         <v>7.7</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="n">
@@ -1463,10 +1505,10 @@
       <c r="G14" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="H14" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="28" t="n">
+      <c r="H14" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="29" t="n">
         <f aca="false">-1.25*(G14/F14+1)</f>
         <v>-5.11363636363636</v>
       </c>
@@ -1479,8 +1521,8 @@
         <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
         <v>6.776</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>38</v>
+      <c r="H15" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -62,10 +62,10 @@
     <t xml:space="preserve">Est Eff</t>
   </si>
   <si>
-    <t xml:space="preserve">Pout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin</t>
+    <t xml:space="preserve">Pout (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin (W)</t>
   </si>
   <si>
     <t xml:space="preserve">vout max</t>
@@ -165,10 +165,10 @@
   <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="0.00"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
@@ -406,19 +406,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +438,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,10 +450,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,10 +459,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,7 +466,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -703,7 +703,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -831,6 +831,10 @@
         <f aca="false">C4*E4</f>
         <v>3</v>
       </c>
+      <c r="K4" s="11" t="n">
+        <f aca="false">J4/I4</f>
+        <v>4.28571428571429</v>
+      </c>
       <c r="AA4" s="1" t="n">
         <v>40</v>
       </c>
@@ -930,27 +934,27 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="12" t="n">
         <f aca="false">(C4+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
         <v>1.82262725050011</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="n">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="n">
         <f aca="false">1/(G4*10^3)</f>
         <v>1.33333333333333E-005</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="n">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="n">
         <f aca="false">C10/(A10+1)</f>
         <v>4.72373152741686E-006</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="n">
+      <c r="F10" s="13"/>
+      <c r="G10" s="14" t="n">
         <f aca="false">C10-E10</f>
         <v>8.60960180591648E-006</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="J10" s="14" t="n">
+      <c r="H10" s="14"/>
+      <c r="J10" s="15" t="n">
         <f aca="false">G10/C10</f>
         <v>0.645720135443736</v>
       </c>
@@ -968,59 +972,59 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="19" t="n">
         <f aca="false">4*10^7*G10</f>
         <v>344.384072236659</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="20" t="n">
         <f aca="false">2*F4*(A10+1)</f>
         <v>1.69357635030007</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="21" t="n">
         <f aca="false">300/B13</f>
         <v>177.139932278132</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="20" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
         <v>22.8714805316898</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="21" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
         <v>193.716040633121</v>
       </c>
-      <c r="F13" s="21" t="n">
+      <c r="F13" s="22" t="n">
         <f aca="false">1250/H4</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="22" t="n">
         <f aca="false">(10^3*C4/H4)-F13</f>
         <v>21.5</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="n">
@@ -1033,7 +1037,7 @@
       <c r="H14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="23" t="n">
+      <c r="I14" s="24" t="n">
         <f aca="false">1.25*(G14/F14+1)</f>
         <v>11.9047619047619</v>
       </c>
@@ -1042,7 +1046,7 @@
       <c r="F15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="24" t="n">
+      <c r="G15" s="11" t="n">
         <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
         <v>17.2</v>
       </c>
@@ -1364,26 +1368,26 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="12" t="n">
         <f aca="false">(ABS(C4)+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
         <v>0.703981481481481</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="n">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="n">
         <f aca="false">1/(G4*10^3)</f>
         <v>1.25E-005</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="n">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="n">
         <f aca="false">C10/(A10+1)</f>
         <v>7.33576047383579E-006</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13" t="n">
+      <c r="F10" s="13"/>
+      <c r="G10" s="14" t="n">
         <f aca="false">C10-E10</f>
         <v>5.16423952616421E-006</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -1398,59 +1402,59 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="19" t="n">
         <f aca="false">4*10^7*G10</f>
         <v>206.569581046568</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="20" t="n">
         <f aca="false">2*F4*(A10+1)</f>
         <v>0.408955555555555</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="21" t="n">
         <f aca="false">300/B13</f>
         <v>733.576047383579</v>
       </c>
-      <c r="D13" s="19" t="n">
+      <c r="D13" s="20" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
         <v>34.0952617741103</v>
       </c>
-      <c r="E13" s="20" t="n">
+      <c r="E13" s="21" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
         <v>74.3650491767646</v>
       </c>
-      <c r="F13" s="21" t="n">
+      <c r="F13" s="22" t="n">
         <f aca="false">1250/H4</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="21" t="n">
+      <c r="G13" s="22" t="n">
         <f aca="false">-F13+(10^3*ABS(C4)/H4)</f>
         <v>7.7</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="n">
@@ -1471,7 +1475,7 @@
       <c r="F15" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="G15" s="24" t="n">
+      <c r="G15" s="11" t="n">
         <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
         <v>6.776</v>
       </c>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -59,6 +59,15 @@
     <t xml:space="preserve">Fb current (µA)</t>
   </si>
   <si>
+    <t xml:space="preserve">Est Eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin</t>
+  </si>
+  <si>
     <t xml:space="preserve">vout max</t>
   </si>
   <si>
@@ -129,15 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f(kHz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40mV</t>
   </si>
   <si>
     <t xml:space="preserve">Pdiss W</t>
@@ -162,15 +162,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="168" formatCode="0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -343,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -360,7 +361,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,19 +402,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,7 +434,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,11 +446,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,11 +454,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,7 +466,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +474,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,7 +703,7 @@
   <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -778,11 +783,20 @@
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="AA3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +813,10 @@
         <v>100</v>
       </c>
       <c r="E4" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="8" t="n">
         <v>0.3</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0.4</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>75</v>
@@ -810,6 +824,13 @@
       <c r="H4" s="9" t="n">
         <v>500</v>
       </c>
+      <c r="I4" s="10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">C4*E4</f>
+        <v>3</v>
+      </c>
       <c r="AA4" s="1" t="n">
         <v>40</v>
       </c>
@@ -819,7 +840,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -829,21 +850,21 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AA5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -869,12 +890,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="AA7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -889,54 +910,54 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6"/>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <f aca="false">(C4+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
         <v>1.82262725050011</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="n">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="n">
         <f aca="false">1/(G4*10^3)</f>
         <v>1.33333333333333E-005</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="n">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="n">
         <f aca="false">C10/(A10+1)</f>
         <v>4.72373152741686E-006</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="n">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="n">
         <f aca="false">C10-E10</f>
         <v>8.60960180591648E-006</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="J10" s="13" t="n">
+      <c r="H10" s="13"/>
+      <c r="J10" s="14" t="n">
         <f aca="false">G10/C10</f>
         <v>0.645720135443736</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -947,59 +968,59 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">4*10^7*G10</f>
         <v>344.384072236659</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="19" t="n">
         <f aca="false">2*F4*(A10+1)</f>
-        <v>2.25810180040009</v>
-      </c>
-      <c r="C13" s="19" t="n">
+        <v>1.69357635030007</v>
+      </c>
+      <c r="C13" s="20" t="n">
         <f aca="false">300/B13</f>
-        <v>132.854949208599</v>
-      </c>
-      <c r="D13" s="18" t="n">
+        <v>177.139932278132</v>
+      </c>
+      <c r="D13" s="19" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
-        <v>17.1536103987673</v>
-      </c>
-      <c r="E13" s="19" t="n">
+        <v>22.8714805316898</v>
+      </c>
+      <c r="E13" s="20" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
-        <v>232.459248759745</v>
-      </c>
-      <c r="F13" s="20" t="n">
+        <v>193.716040633121</v>
+      </c>
+      <c r="F13" s="21" t="n">
         <f aca="false">1250/H4</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="G13" s="21" t="n">
         <f aca="false">(10^3*C4/H4)-F13</f>
         <v>21.5</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="n">
@@ -1010,9 +1031,9 @@
         <v>17.9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="22" t="n">
+        <v>37</v>
+      </c>
+      <c r="I14" s="23" t="n">
         <f aca="false">1.25*(G14/F14+1)</f>
         <v>11.9047619047619</v>
       </c>
@@ -1021,36 +1042,19 @@
       <c r="F15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="24" t="n">
         <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
         <v>17.2</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="H15" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="n">
-        <f aca="false">5.6*2</f>
-        <v>11.2</v>
-      </c>
-      <c r="D17" s="25" t="n">
-        <f aca="false">1/C17*1000</f>
-        <v>89.2857142857143</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1233,10 +1237,10 @@
         <v>11</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,7 +1277,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1283,7 +1287,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AA5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>44</v>
@@ -1291,13 +1295,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1323,12 +1327,12 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="AA7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1343,47 +1347,47 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <f aca="false">(ABS(C4)+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
         <v>0.703981481481481</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="n">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="n">
         <f aca="false">1/(G4*10^3)</f>
         <v>1.25E-005</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="n">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="n">
         <f aca="false">C10/(A10+1)</f>
         <v>7.33576047383579E-006</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="n">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13" t="n">
         <f aca="false">C10-E10</f>
         <v>5.16423952616421E-006</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1394,59 +1398,59 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">4*10^7*G10</f>
         <v>206.569581046568</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="19" t="n">
         <f aca="false">2*F4*(A10+1)</f>
         <v>0.408955555555555</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="20" t="n">
         <f aca="false">300/B13</f>
         <v>733.576047383579</v>
       </c>
-      <c r="D13" s="18" t="n">
+      <c r="D13" s="19" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
         <v>34.0952617741103</v>
       </c>
-      <c r="E13" s="19" t="n">
+      <c r="E13" s="20" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
         <v>74.3650491767646</v>
       </c>
-      <c r="F13" s="20" t="n">
+      <c r="F13" s="21" t="n">
         <f aca="false">1250/H4</f>
         <v>2.5</v>
       </c>
-      <c r="G13" s="20" t="n">
+      <c r="G13" s="21" t="n">
         <f aca="false">-F13+(10^3*ABS(C4)/H4)</f>
         <v>7.7</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="1" t="n">
@@ -1455,10 +1459,10 @@
       <c r="G14" s="1" t="n">
         <v>6.8</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="27" t="n">
+      <c r="H14" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="28" t="n">
         <f aca="false">-1.25*(G14/F14+1)</f>
         <v>-5.11363636363636</v>
       </c>
@@ -1467,12 +1471,12 @@
       <c r="F15" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="G15" s="23" t="n">
+      <c r="G15" s="24" t="n">
         <f aca="false">((ABS(C4)/1.25)-1)*F15</f>
         <v>6.776</v>
       </c>
-      <c r="H15" s="24" t="s">
-        <v>35</v>
+      <c r="H15" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/DCDCboard/34063.xlsx
+++ b/pcb/DCDCboard/34063.xlsx
@@ -800,17 +800,17 @@
   </sheetPr>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.49"/>
@@ -912,16 +912,16 @@
         <v>4.6</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>100</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>75</v>
@@ -930,19 +930,19 @@
         <v>500</v>
       </c>
       <c r="I4" s="10" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">C4*E4</f>
-        <v>3.45</v>
+        <v>4.56</v>
       </c>
       <c r="K4" s="11" t="n">
         <f aca="false">J4/I4</f>
-        <v>4.92857142857143</v>
+        <v>6.08</v>
       </c>
       <c r="L4" s="12" t="n">
         <f aca="false">K4/A4</f>
-        <v>1.02678571428571</v>
+        <v>1.26666666666667</v>
       </c>
       <c r="AA4" s="1" t="n">
         <v>40</v>
@@ -1045,7 +1045,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <f aca="false">(C4+(E7*10^-3)-B4)/(B4-(A7*10^-3))</f>
-        <v>1.65253315938247</v>
+        <v>1.76125244618395</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="n">
@@ -1055,17 +1055,17 @@
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="n">
         <f aca="false">C10/(A10+1)</f>
-        <v>5.0266415279941E-006</v>
+        <v>4.82872667139144E-006</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15" t="n">
         <f aca="false">C10-E10</f>
-        <v>8.30669180533924E-006</v>
+        <v>8.50460666194187E-006</v>
       </c>
       <c r="H10" s="15"/>
       <c r="J10" s="16" t="n">
         <f aca="false">G10/C10</f>
-        <v>0.623001885400443</v>
+        <v>0.637845499645641</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,23 +1107,23 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="n">
         <f aca="false">4*10^7*G10</f>
-        <v>332.267672213569</v>
+        <v>340.184266477675</v>
       </c>
       <c r="B13" s="21" t="n">
         <f aca="false">2*F4*(A10+1)</f>
-        <v>1.59151989562949</v>
+        <v>2.0985518590998</v>
       </c>
       <c r="C13" s="22" t="n">
         <f aca="false">300/B13</f>
-        <v>188.499057299779</v>
+        <v>142.955723824089</v>
       </c>
       <c r="D13" s="21" t="n">
         <f aca="false">10^6*G10*(B4-(A7*10^-3))/B13</f>
-        <v>24.0037687984071</v>
+        <v>18.637941144351</v>
       </c>
       <c r="E13" s="22" t="n">
         <f aca="false">9*E4*G10*10^9/D4</f>
-        <v>224.280678744159</v>
+        <v>290.857547838412</v>
       </c>
       <c r="F13" s="23" t="n">
         <f aca="false">1250/H4</f>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="G13" s="23" t="n">
         <f aca="false">(10^3*C4/H4)-F13</f>
-        <v>20.5</v>
+        <v>21.5</v>
       </c>
       <c r="H13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="25" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="26" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="27" t="n">
         <f aca="false">1.25*(G14/F14+1)</f>
-        <v>11.5</v>
+        <v>12.0833333333333</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="G16" s="31" t="n">
         <f aca="false">((ABS(C4)/1.25)-1)*F16</f>
-        <v>78.72</v>
+        <v>82.56</v>
       </c>
       <c r="H16" s="32"/>
     </row>
@@ -1204,7 +1204,7 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="11" t="n">
         <f aca="false">K4-J4</f>
-        <v>1.47857142857143</v>
+        <v>1.52</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>85</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I20" s="33" t="n">
         <f aca="false">H20+F20*G20</f>
-        <v>155.678571428571</v>
+        <v>159.2</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>150</v>
